--- a/SoftwareSanitario/database/excel/patient_data.xlsx
+++ b/SoftwareSanitario/database/excel/patient_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E604781D-E984-4419-B743-51A65919265D}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{43A6C9CF-CD0E-439B-BD89-17ADD095EED7}"/>
   <bookViews>
-    <workbookView xWindow="-8424" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -970,18 +970,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1262,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87:J100"/>
+      <selection activeCell="F2" sqref="F2:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,11 +1275,11 @@
     <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="22.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,20 +1297,22 @@
         <v>196</v>
       </c>
       <c r="F1">
-        <v>26296</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1327,20 +1330,23 @@
         <v>196</v>
       </c>
       <c r="F2">
-        <v>48536</v>
+        <f>1+F1</f>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1358,20 +1364,23 @@
         <v>196</v>
       </c>
       <c r="F3">
-        <v>65237</v>
+        <f t="shared" ref="F3:F66" si="1">1+F2</f>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>197</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1389,20 +1398,23 @@
         <v>196</v>
       </c>
       <c r="F4">
-        <v>88792</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>197</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1420,20 +1432,23 @@
         <v>196</v>
       </c>
       <c r="F5">
-        <v>37525</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>197</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J5" t="s">
         <v>202</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1451,20 +1466,23 @@
         <v>196</v>
       </c>
       <c r="F6">
-        <v>69223</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>197</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1482,19 +1500,23 @@
         <v>196</v>
       </c>
       <c r="F7">
-        <v>68532</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>197</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J7" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1512,19 +1534,23 @@
         <v>196</v>
       </c>
       <c r="F8">
-        <v>28369</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>197</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J8" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1542,19 +1568,23 @@
         <v>196</v>
       </c>
       <c r="F9">
-        <v>59584</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>197</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1572,19 +1602,23 @@
         <v>196</v>
       </c>
       <c r="F10">
-        <v>93682</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>197</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1602,19 +1636,23 @@
         <v>196</v>
       </c>
       <c r="F11">
-        <v>63224</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>197</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J11" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1632,19 +1670,23 @@
         <v>196</v>
       </c>
       <c r="F12">
-        <v>54849</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>197</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1662,19 +1704,23 @@
         <v>196</v>
       </c>
       <c r="F13">
-        <v>74973</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>197</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" t="s">
         <v>210</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1692,19 +1738,23 @@
         <v>196</v>
       </c>
       <c r="F14">
-        <v>22799</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>197</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1722,19 +1772,23 @@
         <v>196</v>
       </c>
       <c r="F15">
-        <v>85877</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>197</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J15" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1752,16 +1806,20 @@
         <v>196</v>
       </c>
       <c r="F16">
-        <v>47397</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>197</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" t="s">
         <v>213</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1782,16 +1840,20 @@
         <v>196</v>
       </c>
       <c r="F17">
-        <v>66474</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>197</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J17" t="s">
         <v>214</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1812,16 +1874,20 @@
         <v>196</v>
       </c>
       <c r="F18">
-        <v>55894</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>197</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J18" t="s">
         <v>215</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1842,16 +1908,20 @@
         <v>196</v>
       </c>
       <c r="F19">
-        <v>59857</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>197</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" t="s">
         <v>216</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1872,16 +1942,20 @@
         <v>196</v>
       </c>
       <c r="F20">
-        <v>75823</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>197</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J20" t="s">
         <v>217</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1902,16 +1976,20 @@
         <v>196</v>
       </c>
       <c r="F21">
-        <v>87286</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>197</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J21" t="s">
         <v>218</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1932,16 +2010,20 @@
         <v>196</v>
       </c>
       <c r="F22">
-        <v>73335</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
         <v>197</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J22" t="s">
         <v>219</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1962,16 +2044,20 @@
         <v>196</v>
       </c>
       <c r="F23">
-        <v>82242</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>197</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" t="s">
         <v>220</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1992,16 +2078,20 @@
         <v>196</v>
       </c>
       <c r="F24">
-        <v>65722</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
         <v>197</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J24" t="s">
         <v>221</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2022,16 +2112,20 @@
         <v>196</v>
       </c>
       <c r="F25">
-        <v>67785</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
         <v>197</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J25" t="s">
         <v>222</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2052,16 +2146,20 @@
         <v>196</v>
       </c>
       <c r="F26">
-        <v>34285</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>197</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J26" t="s">
         <v>223</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2082,16 +2180,20 @@
         <v>196</v>
       </c>
       <c r="F27">
-        <v>74348</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>197</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" t="s">
         <v>224</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2112,16 +2214,20 @@
         <v>196</v>
       </c>
       <c r="F28">
-        <v>68252</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>197</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" t="s">
         <v>225</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2142,16 +2248,20 @@
         <v>196</v>
       </c>
       <c r="F29">
-        <v>29934</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>197</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" t="s">
         <v>226</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2172,16 +2282,20 @@
         <v>196</v>
       </c>
       <c r="F30">
-        <v>84444</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>197</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" t="s">
         <v>227</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2202,16 +2316,20 @@
         <v>196</v>
       </c>
       <c r="F31">
-        <v>96367</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>197</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
         <v>228</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2232,16 +2350,20 @@
         <v>196</v>
       </c>
       <c r="F32">
-        <v>29282</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>197</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
         <v>229</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2262,16 +2384,20 @@
         <v>196</v>
       </c>
       <c r="F33">
-        <v>33672</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>197</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
         <v>230</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2292,16 +2418,20 @@
         <v>196</v>
       </c>
       <c r="F34">
-        <v>58786</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>197</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
         <v>231</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2322,16 +2452,20 @@
         <v>196</v>
       </c>
       <c r="F35">
-        <v>93286</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>197</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
         <v>232</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2352,16 +2486,20 @@
         <v>196</v>
       </c>
       <c r="F36">
-        <v>29735</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>197</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
         <v>233</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2382,16 +2520,20 @@
         <v>196</v>
       </c>
       <c r="F37">
-        <v>79345</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>197</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
         <v>234</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2412,16 +2554,20 @@
         <v>196</v>
       </c>
       <c r="F38">
-        <v>62464</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>197</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
         <v>235</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2442,16 +2588,20 @@
         <v>196</v>
       </c>
       <c r="F39">
-        <v>76234</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>197</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
         <v>236</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2472,16 +2622,20 @@
         <v>196</v>
       </c>
       <c r="F40">
-        <v>64866</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>197</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" t="s">
         <v>237</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2502,16 +2656,20 @@
         <v>196</v>
       </c>
       <c r="F41">
-        <v>86765</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>197</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
         <v>238</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2532,16 +2690,20 @@
         <v>196</v>
       </c>
       <c r="F42">
-        <v>28633</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>197</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
         <v>239</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2562,16 +2724,20 @@
         <v>196</v>
       </c>
       <c r="F43">
-        <v>52546</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
         <v>197</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
         <v>240</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2592,16 +2758,20 @@
         <v>196</v>
       </c>
       <c r="F44">
-        <v>93692</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
         <v>197</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
         <v>241</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2622,16 +2792,20 @@
         <v>196</v>
       </c>
       <c r="F45">
-        <v>37493</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
         <v>197</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" t="s">
         <v>242</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2652,16 +2826,20 @@
         <v>196</v>
       </c>
       <c r="F46">
-        <v>86257</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>197</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
         <v>243</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2682,16 +2860,20 @@
         <v>196</v>
       </c>
       <c r="F47">
-        <v>92522</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>197</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J47" t="s">
         <v>244</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2712,16 +2894,20 @@
         <v>196</v>
       </c>
       <c r="F48">
-        <v>32579</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
         <v>197</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s">
         <v>245</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2742,16 +2928,20 @@
         <v>196</v>
       </c>
       <c r="F49">
-        <v>24732</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>197</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J49" t="s">
         <v>246</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2772,16 +2962,20 @@
         <v>196</v>
       </c>
       <c r="F50">
-        <v>26494</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>197</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" t="s">
         <v>247</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2802,16 +2996,20 @@
         <v>196</v>
       </c>
       <c r="F51">
-        <v>93374</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
         <v>197</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s">
         <v>248</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2832,16 +3030,20 @@
         <v>196</v>
       </c>
       <c r="F52">
-        <v>22525</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
         <v>197</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" t="s">
         <v>249</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2862,16 +3064,20 @@
         <v>196</v>
       </c>
       <c r="F53">
-        <v>39238</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
         <v>197</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J53" t="s">
         <v>250</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2892,16 +3098,20 @@
         <v>196</v>
       </c>
       <c r="F54">
-        <v>48593</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
         <v>197</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J54" t="s">
         <v>251</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2922,16 +3132,20 @@
         <v>196</v>
       </c>
       <c r="F55">
-        <v>25623</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
         <v>197</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J55" t="s">
         <v>252</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2952,16 +3166,20 @@
         <v>196</v>
       </c>
       <c r="F56">
-        <v>63888</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
         <v>197</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J56" t="s">
         <v>253</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2982,16 +3200,20 @@
         <v>196</v>
       </c>
       <c r="F57">
-        <v>24573</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
         <v>197</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J57" t="s">
         <v>254</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3012,16 +3234,20 @@
         <v>196</v>
       </c>
       <c r="F58">
-        <v>63667</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
         <v>197</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J58" t="s">
         <v>255</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3042,16 +3268,20 @@
         <v>196</v>
       </c>
       <c r="F59">
-        <v>62395</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="G59" t="s">
         <v>197</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J59" t="s">
         <v>256</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3072,16 +3302,20 @@
         <v>196</v>
       </c>
       <c r="F60">
-        <v>65774</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>197</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J60" t="s">
         <v>257</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3102,16 +3336,20 @@
         <v>196</v>
       </c>
       <c r="F61">
-        <v>29667</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
         <v>197</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J61" t="s">
         <v>258</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3132,16 +3370,20 @@
         <v>196</v>
       </c>
       <c r="F62">
-        <v>38773</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
         <v>197</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J62" t="s">
         <v>259</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3162,16 +3404,20 @@
         <v>196</v>
       </c>
       <c r="F63">
-        <v>33258</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
         <v>197</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J63" t="s">
         <v>260</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3192,16 +3438,20 @@
         <v>196</v>
       </c>
       <c r="F64">
-        <v>48458</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
         <v>197</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J64" t="s">
         <v>261</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3222,16 +3472,20 @@
         <v>196</v>
       </c>
       <c r="F65">
-        <v>88862</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="G65" t="s">
         <v>197</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J65" t="s">
         <v>262</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3242,7 +3496,7 @@
         <v>161</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:C100" si="1" xml:space="preserve"> 2019 - YEAR(D66)</f>
+        <f t="shared" ref="C66:C100" si="2" xml:space="preserve"> 2019 - YEAR(D66)</f>
         <v>32</v>
       </c>
       <c r="D66" s="2">
@@ -3252,16 +3506,20 @@
         <v>196</v>
       </c>
       <c r="F66">
-        <v>87676</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="G66" t="s">
         <v>197</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J66" t="s">
         <v>263</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3272,7 +3530,7 @@
         <v>162</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D67" s="2">
@@ -3282,16 +3540,20 @@
         <v>196</v>
       </c>
       <c r="F67">
-        <v>83349</v>
+        <f t="shared" ref="F67:F100" si="3">1+F66</f>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
         <v>197</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J67" t="s">
         <v>264</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3302,7 +3564,7 @@
         <v>163</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D68" s="2">
@@ -3312,16 +3574,20 @@
         <v>196</v>
       </c>
       <c r="F68">
-        <v>98865</v>
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="G68" t="s">
         <v>197</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J68" t="s">
         <v>265</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3332,7 +3598,7 @@
         <v>164</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D69" s="2">
@@ -3342,16 +3608,20 @@
         <v>196</v>
       </c>
       <c r="F69">
-        <v>47976</v>
+        <f t="shared" si="3"/>
+        <v>69</v>
       </c>
       <c r="G69" t="s">
         <v>197</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J69" t="s">
         <v>266</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3362,7 +3632,7 @@
         <v>165</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D70" s="2">
@@ -3372,16 +3642,20 @@
         <v>196</v>
       </c>
       <c r="F70">
-        <v>48632</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="G70" t="s">
         <v>197</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J70" t="s">
         <v>267</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3392,7 +3666,7 @@
         <v>166</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D71" s="2">
@@ -3402,16 +3676,20 @@
         <v>196</v>
       </c>
       <c r="F71">
-        <v>22789</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="G71" t="s">
         <v>197</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J71" t="s">
         <v>268</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3422,7 +3700,7 @@
         <v>167</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D72" s="2">
@@ -3432,16 +3710,20 @@
         <v>196</v>
       </c>
       <c r="F72">
-        <v>58828</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="G72" t="s">
         <v>197</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J72" t="s">
         <v>269</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3452,7 +3734,7 @@
         <v>168</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D73" s="2">
@@ -3462,16 +3744,20 @@
         <v>196</v>
       </c>
       <c r="F73">
-        <v>63595</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="G73" t="s">
         <v>197</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J73" t="s">
         <v>270</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3482,7 +3768,7 @@
         <v>169</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D74" s="2">
@@ -3492,16 +3778,20 @@
         <v>196</v>
       </c>
       <c r="F74">
-        <v>33643</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="G74" t="s">
         <v>197</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J74" t="s">
         <v>271</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3512,7 +3802,7 @@
         <v>170</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D75" s="2">
@@ -3522,16 +3812,20 @@
         <v>196</v>
       </c>
       <c r="F75">
-        <v>98882</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="G75" t="s">
         <v>197</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J75" t="s">
         <v>272</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3542,7 +3836,7 @@
         <v>171</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="D76" s="2">
@@ -3552,16 +3846,20 @@
         <v>196</v>
       </c>
       <c r="F76">
-        <v>68849</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
         <v>197</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J76" t="s">
         <v>273</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3572,7 +3870,7 @@
         <v>172</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="D77" s="2">
@@ -3582,16 +3880,20 @@
         <v>196</v>
       </c>
       <c r="F77">
-        <v>49478</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="G77" t="s">
         <v>197</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J77" t="s">
         <v>274</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3602,7 +3904,7 @@
         <v>173</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="D78" s="2">
@@ -3612,16 +3914,20 @@
         <v>196</v>
       </c>
       <c r="F78">
-        <v>87963</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="G78" t="s">
         <v>197</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J78" t="s">
         <v>275</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3632,7 +3938,7 @@
         <v>174</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="D79" s="2">
@@ -3642,16 +3948,20 @@
         <v>196</v>
       </c>
       <c r="F79">
-        <v>92774</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="G79" t="s">
         <v>197</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="7">
+        <v>1</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J79" t="s">
         <v>250</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3662,7 +3972,7 @@
         <v>175</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D80" s="2">
@@ -3672,16 +3982,20 @@
         <v>196</v>
       </c>
       <c r="F80">
-        <v>96523</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G80" t="s">
         <v>197</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="7">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J80" t="s">
         <v>276</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3692,7 +4006,7 @@
         <v>176</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D81" s="2">
@@ -3702,16 +4016,20 @@
         <v>196</v>
       </c>
       <c r="F81">
-        <v>96633</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
         <v>197</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J81" t="s">
         <v>277</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3722,7 +4040,7 @@
         <v>177</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="D82" s="2">
@@ -3732,16 +4050,20 @@
         <v>196</v>
       </c>
       <c r="F82">
-        <v>73524</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="G82" t="s">
         <v>197</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J82" t="s">
         <v>278</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3752,7 +4074,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="D83" s="2">
@@ -3762,16 +4084,20 @@
         <v>196</v>
       </c>
       <c r="F83">
-        <v>99983</v>
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
         <v>197</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J83" t="s">
         <v>279</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3782,7 +4108,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="D84" s="2">
@@ -3792,16 +4118,20 @@
         <v>196</v>
       </c>
       <c r="F84">
-        <v>67994</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="G84" t="s">
         <v>197</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J84" t="s">
         <v>280</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3812,7 +4142,7 @@
         <v>180</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="D85" s="2">
@@ -3822,16 +4152,20 @@
         <v>196</v>
       </c>
       <c r="F85">
-        <v>45722</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="G85" t="s">
         <v>197</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J85" t="s">
         <v>281</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3842,7 +4176,7 @@
         <v>181</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="D86" s="2">
@@ -3852,16 +4186,20 @@
         <v>196</v>
       </c>
       <c r="F86">
-        <v>88548</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="G86" t="s">
         <v>197</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J86" t="s">
         <v>282</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3872,7 +4210,7 @@
         <v>182</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="D87" s="2">
@@ -3882,16 +4220,20 @@
         <v>196</v>
       </c>
       <c r="F87">
-        <v>88848</v>
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
         <v>197</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J87" t="s">
         <v>283</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3902,7 +4244,7 @@
         <v>183</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="D88" s="2">
@@ -3912,16 +4254,20 @@
         <v>196</v>
       </c>
       <c r="F88">
-        <v>86798</v>
+        <f t="shared" si="3"/>
+        <v>88</v>
       </c>
       <c r="G88" t="s">
         <v>197</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="7">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J88" t="s">
         <v>284</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3932,7 +4278,7 @@
         <v>184</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D89" s="2">
@@ -3942,16 +4288,20 @@
         <v>196</v>
       </c>
       <c r="F89">
-        <v>39359</v>
+        <f t="shared" si="3"/>
+        <v>89</v>
       </c>
       <c r="G89" t="s">
         <v>197</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" t="s">
         <v>285</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3962,7 +4312,7 @@
         <v>185</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D90" s="2">
@@ -3972,16 +4322,20 @@
         <v>196</v>
       </c>
       <c r="F90">
-        <v>79792</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G90" t="s">
         <v>197</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J90" t="s">
         <v>286</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3992,7 +4346,7 @@
         <v>186</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D91" s="2">
@@ -4002,16 +4356,20 @@
         <v>196</v>
       </c>
       <c r="F91">
-        <v>44288</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="G91" t="s">
         <v>197</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="7">
+        <v>1</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" t="s">
         <v>287</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4022,7 +4380,7 @@
         <v>187</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D92" s="2">
@@ -4032,16 +4390,20 @@
         <v>196</v>
       </c>
       <c r="F92">
-        <v>84954</v>
+        <f t="shared" si="3"/>
+        <v>92</v>
       </c>
       <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J92" t="s">
         <v>288</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4052,7 +4414,7 @@
         <v>188</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D93" s="2">
@@ -4062,16 +4424,20 @@
         <v>196</v>
       </c>
       <c r="F93">
-        <v>58282</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>197</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J93" t="s">
         <v>273</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4082,7 +4448,7 @@
         <v>189</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D94" s="2">
@@ -4092,16 +4458,20 @@
         <v>196</v>
       </c>
       <c r="F94">
-        <v>39842</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J94" t="s">
         <v>289</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4112,7 +4482,7 @@
         <v>190</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D95" s="2">
@@ -4122,16 +4492,20 @@
         <v>196</v>
       </c>
       <c r="F95">
-        <v>29964</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="G95" t="s">
         <v>197</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="7">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J95" t="s">
         <v>290</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4142,7 +4516,7 @@
         <v>191</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D96" s="2">
@@ -4152,16 +4526,20 @@
         <v>196</v>
       </c>
       <c r="F96">
-        <v>44334</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
       <c r="G96" t="s">
         <v>197</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="7">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J96" t="s">
         <v>291</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4172,7 +4550,7 @@
         <v>192</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D97" s="2">
@@ -4182,16 +4560,20 @@
         <v>196</v>
       </c>
       <c r="F97">
-        <v>89629</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="G97" t="s">
         <v>197</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="7">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" t="s">
         <v>292</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4202,7 +4584,7 @@
         <v>193</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D98" s="2">
@@ -4212,16 +4594,20 @@
         <v>196</v>
       </c>
       <c r="F98">
-        <v>34962</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
         <v>197</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="7">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" t="s">
         <v>293</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4232,7 +4618,7 @@
         <v>194</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D99" s="2">
@@ -4242,16 +4628,20 @@
         <v>196</v>
       </c>
       <c r="F99">
-        <v>27933</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="G99" t="s">
         <v>197</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J99" t="s">
         <v>294</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4262,7 +4652,7 @@
         <v>195</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D100" s="2">
@@ -4272,16 +4662,20 @@
         <v>196</v>
       </c>
       <c r="F100">
-        <v>57323</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G100" t="s">
         <v>197</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="7">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J100" t="s">
         <v>295</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/SoftwareSanitario/database/excel/patient_data.xlsx
+++ b/SoftwareSanitario/database/excel/patient_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{43A6C9CF-CD0E-439B-BD89-17ADD095EED7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B1451C-C3C2-473C-AE18-A2E505F90BE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4956" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,7 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1263,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F100"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,11 +1274,11 @@
     <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,17 +1301,14 @@
       <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="7">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1336,17 +1332,14 @@
       <c r="G2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,17 +1363,14 @@
       <c r="G3" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1404,17 +1394,14 @@
       <c r="G4" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,17 +1425,14 @@
       <c r="G5" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1472,17 +1456,14 @@
       <c r="G6" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1506,17 +1487,14 @@
       <c r="G7" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1540,17 +1518,14 @@
       <c r="G8" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1574,17 +1549,14 @@
       <c r="G9" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1608,17 +1580,14 @@
       <c r="G10" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1642,17 +1611,14 @@
       <c r="G11" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1676,17 +1642,14 @@
       <c r="G12" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1710,17 +1673,14 @@
       <c r="G13" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1744,17 +1704,14 @@
       <c r="G14" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1778,17 +1735,14 @@
       <c r="G15" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1812,17 +1766,14 @@
       <c r="G16" t="s">
         <v>197</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1846,17 +1797,14 @@
       <c r="G17" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1880,17 +1828,14 @@
       <c r="G18" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1914,17 +1859,14 @@
       <c r="G19" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1948,17 +1890,14 @@
       <c r="G20" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1982,17 +1921,14 @@
       <c r="G21" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2016,17 +1952,14 @@
       <c r="G22" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,17 +1983,14 @@
       <c r="G23" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2084,17 +2014,14 @@
       <c r="G24" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2118,17 +2045,14 @@
       <c r="G25" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2152,17 +2076,14 @@
       <c r="G26" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2186,17 +2107,14 @@
       <c r="G27" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2220,17 +2138,14 @@
       <c r="G28" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J28" t="s">
+      <c r="I28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2254,17 +2169,14 @@
       <c r="G29" t="s">
         <v>197</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2288,17 +2200,14 @@
       <c r="G30" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2322,17 +2231,14 @@
       <c r="G31" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J31" t="s">
+      <c r="I31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2356,17 +2262,14 @@
       <c r="G32" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2390,17 +2293,14 @@
       <c r="G33" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2424,17 +2324,14 @@
       <c r="G34" t="s">
         <v>197</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J34" t="s">
+      <c r="I34" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2458,17 +2355,14 @@
       <c r="G35" t="s">
         <v>197</v>
       </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J35" t="s">
+      <c r="I35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2492,17 +2386,14 @@
       <c r="G36" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2526,17 +2417,14 @@
       <c r="G37" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J37" t="s">
+      <c r="I37" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2560,17 +2448,14 @@
       <c r="G38" t="s">
         <v>197</v>
       </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J38" t="s">
+      <c r="I38" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,17 +2479,14 @@
       <c r="G39" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J39" t="s">
+      <c r="I39" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2628,17 +2510,14 @@
       <c r="G40" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J40" t="s">
+      <c r="I40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,17 +2541,14 @@
       <c r="G41" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J41" t="s">
+      <c r="I41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2696,17 +2572,14 @@
       <c r="G42" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J42" t="s">
+      <c r="I42" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2730,17 +2603,14 @@
       <c r="G43" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J43" t="s">
+      <c r="I43" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2764,17 +2634,14 @@
       <c r="G44" t="s">
         <v>197</v>
       </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J44" t="s">
+      <c r="I44" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2798,17 +2665,14 @@
       <c r="G45" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J45" t="s">
+      <c r="I45" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2832,17 +2696,14 @@
       <c r="G46" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J46" t="s">
+      <c r="I46" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2866,17 +2727,14 @@
       <c r="G47" t="s">
         <v>197</v>
       </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J47" t="s">
+      <c r="I47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2900,17 +2758,14 @@
       <c r="G48" t="s">
         <v>197</v>
       </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J48" t="s">
+      <c r="I48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2934,17 +2789,14 @@
       <c r="G49" t="s">
         <v>197</v>
       </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J49" t="s">
+      <c r="I49" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2968,17 +2820,14 @@
       <c r="G50" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="I50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J50" t="s">
+      <c r="I50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3002,17 +2851,14 @@
       <c r="G51" t="s">
         <v>197</v>
       </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J51" t="s">
+      <c r="I51" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3036,17 +2882,14 @@
       <c r="G52" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="7">
-        <v>1</v>
-      </c>
-      <c r="I52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J52" t="s">
+      <c r="I52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -3070,17 +2913,14 @@
       <c r="G53" t="s">
         <v>197</v>
       </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J53" t="s">
+      <c r="I53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -3104,17 +2944,14 @@
       <c r="G54" t="s">
         <v>197</v>
       </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J54" t="s">
+      <c r="I54" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -3138,17 +2975,14 @@
       <c r="G55" t="s">
         <v>197</v>
       </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J55" t="s">
+      <c r="I55" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -3172,17 +3006,14 @@
       <c r="G56" t="s">
         <v>197</v>
       </c>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J56" t="s">
+      <c r="I56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3206,17 +3037,14 @@
       <c r="G57" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J57" t="s">
+      <c r="I57" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3240,17 +3068,14 @@
       <c r="G58" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J58" t="s">
+      <c r="I58" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3274,17 +3099,14 @@
       <c r="G59" t="s">
         <v>197</v>
       </c>
-      <c r="H59" s="7">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J59" t="s">
+      <c r="I59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3308,17 +3130,14 @@
       <c r="G60" t="s">
         <v>197</v>
       </c>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J60" t="s">
+      <c r="I60" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3342,17 +3161,14 @@
       <c r="G61" t="s">
         <v>197</v>
       </c>
-      <c r="H61" s="7">
-        <v>1</v>
-      </c>
-      <c r="I61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J61" t="s">
+      <c r="I61" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3376,17 +3192,14 @@
       <c r="G62" t="s">
         <v>197</v>
       </c>
-      <c r="H62" s="7">
-        <v>1</v>
-      </c>
-      <c r="I62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J62" t="s">
+      <c r="I62" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3410,17 +3223,14 @@
       <c r="G63" t="s">
         <v>197</v>
       </c>
-      <c r="H63" s="7">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J63" t="s">
+      <c r="I63" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3444,17 +3254,14 @@
       <c r="G64" t="s">
         <v>197</v>
       </c>
-      <c r="H64" s="7">
-        <v>1</v>
-      </c>
-      <c r="I64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J64" t="s">
+      <c r="I64" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3478,17 +3285,14 @@
       <c r="G65" t="s">
         <v>197</v>
       </c>
-      <c r="H65" s="7">
-        <v>1</v>
-      </c>
-      <c r="I65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J65" t="s">
+      <c r="I65" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3512,17 +3316,14 @@
       <c r="G66" t="s">
         <v>197</v>
       </c>
-      <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J66" t="s">
+      <c r="I66" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3546,17 +3347,14 @@
       <c r="G67" t="s">
         <v>197</v>
       </c>
-      <c r="H67" s="7">
-        <v>1</v>
-      </c>
-      <c r="I67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J67" t="s">
+      <c r="I67" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3580,17 +3378,14 @@
       <c r="G68" t="s">
         <v>197</v>
       </c>
-      <c r="H68" s="7">
-        <v>1</v>
-      </c>
-      <c r="I68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J68" t="s">
+      <c r="I68" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3614,17 +3409,14 @@
       <c r="G69" t="s">
         <v>197</v>
       </c>
-      <c r="H69" s="7">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J69" t="s">
+      <c r="I69" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3648,17 +3440,14 @@
       <c r="G70" t="s">
         <v>197</v>
       </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J70" t="s">
+      <c r="I70" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3682,17 +3471,14 @@
       <c r="G71" t="s">
         <v>197</v>
       </c>
-      <c r="H71" s="7">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J71" t="s">
+      <c r="I71" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3716,17 +3502,14 @@
       <c r="G72" t="s">
         <v>197</v>
       </c>
-      <c r="H72" s="7">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J72" t="s">
+      <c r="I72" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3750,17 +3533,14 @@
       <c r="G73" t="s">
         <v>197</v>
       </c>
-      <c r="H73" s="7">
-        <v>1</v>
-      </c>
-      <c r="I73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J73" t="s">
+      <c r="I73" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>58</v>
       </c>
@@ -3784,17 +3564,14 @@
       <c r="G74" t="s">
         <v>197</v>
       </c>
-      <c r="H74" s="7">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J74" t="s">
+      <c r="I74" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -3818,17 +3595,14 @@
       <c r="G75" t="s">
         <v>197</v>
       </c>
-      <c r="H75" s="7">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J75" t="s">
+      <c r="I75" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -3852,17 +3626,14 @@
       <c r="G76" t="s">
         <v>197</v>
       </c>
-      <c r="H76" s="7">
-        <v>1</v>
-      </c>
-      <c r="I76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J76" t="s">
+      <c r="I76" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -3886,17 +3657,14 @@
       <c r="G77" t="s">
         <v>197</v>
       </c>
-      <c r="H77" s="7">
-        <v>1</v>
-      </c>
-      <c r="I77" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J77" t="s">
+      <c r="I77" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -3920,17 +3688,14 @@
       <c r="G78" t="s">
         <v>197</v>
       </c>
-      <c r="H78" s="7">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="H78" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J78" t="s">
+      <c r="I78" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -3954,17 +3719,14 @@
       <c r="G79" t="s">
         <v>197</v>
       </c>
-      <c r="H79" s="7">
-        <v>1</v>
-      </c>
-      <c r="I79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J79" t="s">
+      <c r="I79" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3988,17 +3750,14 @@
       <c r="G80" t="s">
         <v>197</v>
       </c>
-      <c r="H80" s="7">
-        <v>1</v>
-      </c>
-      <c r="I80" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J80" t="s">
+      <c r="I80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -4022,17 +3781,14 @@
       <c r="G81" t="s">
         <v>197</v>
       </c>
-      <c r="H81" s="7">
-        <v>1</v>
-      </c>
-      <c r="I81" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J81" t="s">
+      <c r="I81" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -4056,17 +3812,14 @@
       <c r="G82" t="s">
         <v>197</v>
       </c>
-      <c r="H82" s="7">
-        <v>1</v>
-      </c>
-      <c r="I82" s="6" t="s">
+      <c r="H82" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J82" t="s">
+      <c r="I82" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -4090,17 +3843,14 @@
       <c r="G83" t="s">
         <v>197</v>
       </c>
-      <c r="H83" s="7">
-        <v>1</v>
-      </c>
-      <c r="I83" s="6" t="s">
+      <c r="H83" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J83" t="s">
+      <c r="I83" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -4124,17 +3874,14 @@
       <c r="G84" t="s">
         <v>197</v>
       </c>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-      <c r="I84" s="6" t="s">
+      <c r="H84" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J84" t="s">
+      <c r="I84" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -4158,17 +3905,14 @@
       <c r="G85" t="s">
         <v>197</v>
       </c>
-      <c r="H85" s="7">
-        <v>1</v>
-      </c>
-      <c r="I85" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J85" t="s">
+      <c r="I85" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -4192,17 +3936,14 @@
       <c r="G86" t="s">
         <v>197</v>
       </c>
-      <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="6" t="s">
+      <c r="H86" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J86" t="s">
+      <c r="I86" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -4226,17 +3967,14 @@
       <c r="G87" t="s">
         <v>197</v>
       </c>
-      <c r="H87" s="7">
-        <v>1</v>
-      </c>
-      <c r="I87" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J87" t="s">
+      <c r="I87" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -4260,17 +3998,14 @@
       <c r="G88" t="s">
         <v>197</v>
       </c>
-      <c r="H88" s="7">
-        <v>1</v>
-      </c>
-      <c r="I88" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J88" t="s">
+      <c r="I88" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -4294,17 +4029,14 @@
       <c r="G89" t="s">
         <v>197</v>
       </c>
-      <c r="H89" s="7">
-        <v>1</v>
-      </c>
-      <c r="I89" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J89" t="s">
+      <c r="I89" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -4328,17 +4060,14 @@
       <c r="G90" t="s">
         <v>197</v>
       </c>
-      <c r="H90" s="7">
-        <v>1</v>
-      </c>
-      <c r="I90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J90" t="s">
+      <c r="I90" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -4362,17 +4091,14 @@
       <c r="G91" t="s">
         <v>197</v>
       </c>
-      <c r="H91" s="7">
-        <v>1</v>
-      </c>
-      <c r="I91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J91" t="s">
+      <c r="I91" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -4396,17 +4122,14 @@
       <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="H92" s="7">
-        <v>1</v>
-      </c>
-      <c r="I92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J92" t="s">
+      <c r="I92" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -4430,17 +4153,14 @@
       <c r="G93" t="s">
         <v>197</v>
       </c>
-      <c r="H93" s="7">
-        <v>1</v>
-      </c>
-      <c r="I93" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J93" t="s">
+      <c r="I93" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -4464,17 +4184,14 @@
       <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="H94" s="7">
-        <v>1</v>
-      </c>
-      <c r="I94" s="6" t="s">
+      <c r="H94" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J94" t="s">
+      <c r="I94" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -4498,17 +4215,14 @@
       <c r="G95" t="s">
         <v>197</v>
       </c>
-      <c r="H95" s="7">
-        <v>1</v>
-      </c>
-      <c r="I95" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J95" t="s">
+      <c r="I95" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -4532,17 +4246,14 @@
       <c r="G96" t="s">
         <v>197</v>
       </c>
-      <c r="H96" s="7">
-        <v>1</v>
-      </c>
-      <c r="I96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J96" t="s">
+      <c r="I96" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -4566,17 +4277,14 @@
       <c r="G97" t="s">
         <v>197</v>
       </c>
-      <c r="H97" s="7">
-        <v>1</v>
-      </c>
-      <c r="I97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J97" t="s">
+      <c r="I97" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -4600,17 +4308,14 @@
       <c r="G98" t="s">
         <v>197</v>
       </c>
-      <c r="H98" s="7">
-        <v>1</v>
-      </c>
-      <c r="I98" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J98" t="s">
+      <c r="I98" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -4634,17 +4339,14 @@
       <c r="G99" t="s">
         <v>197</v>
       </c>
-      <c r="H99" s="7">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J99" t="s">
+      <c r="I99" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -4668,13 +4370,10 @@
       <c r="G100" t="s">
         <v>197</v>
       </c>
-      <c r="H100" s="7">
-        <v>1</v>
-      </c>
-      <c r="I100" s="6" t="s">
+      <c r="H100" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J100" t="s">
+      <c r="I100" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4682,4 +4381,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F1D26AA9063C44D9D7B42AEE879C6CD" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2f80071aa66f82567bdcc22d9883f7f5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e25ae402-d948-4387-b4ab-867d700f3c2b" xmlns:ns4="e30140dd-c666-4ff3-ac60-2216e57fdebb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e666f408171dadceff32507896a4d13" ns3:_="" ns4:_="">
+    <xsd:import namespace="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
+    <xsd:import namespace="e30140dd-c666-4ff3-ac60-2216e57fdebb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e25ae402-d948-4387-b4ab-867d700f3c2b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e30140dd-c666-4ff3-ac60-2216e57fdebb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Hash suggerimento condivisione" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{344C7296-4309-4A2C-B7B2-EA5CE300B928}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
+    <ds:schemaRef ds:uri="e30140dd-c666-4ff3-ac60-2216e57fdebb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F97287-0137-4FBF-90B9-063A710031A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E3D5A5-1F36-450E-A065-99A0D15D20E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e30140dd-c666-4ff3-ac60-2216e57fdebb"/>
+    <ds:schemaRef ds:uri="e25ae402-d948-4387-b4ab-867d700f3c2b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>